--- a/reference/DisciplineLookupFieldsForApp.xlsx
+++ b/reference/DisciplineLookupFieldsForApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goconfluent.sharepoint.com/sites/UPADVISORS/EIM Analytics/04 - WebApps/NeedsAssessmentTool/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDB20BA-9E64-405E-A805-CE36D960D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{DFDB20BA-9E64-405E-A805-CE36D960D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADAB95B6-8286-4E0A-8519-47F233B5DB94}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{352595CA-19E8-4A60-8C01-6E89111709C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Discipline</t>
   </si>
@@ -149,6 +149,75 @@
   </si>
   <si>
     <t>ACOTE</t>
+  </si>
+  <si>
+    <t>ReferenceOne</t>
+  </si>
+  <si>
+    <t>ReferenceTwo</t>
+  </si>
+  <si>
+    <t>ReferenceThree</t>
+  </si>
+  <si>
+    <t>ReferenceFour</t>
+  </si>
+  <si>
+    <t>ReferenceFive</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau Quick Facts - https://www.census.gov/quickfacts</t>
+  </si>
+  <si>
+    <t>Projections Central, Long-Term Occupational Projections (2018-2028), https://projectionscentral.org/Projections/LongTerm</t>
+  </si>
+  <si>
+    <t>CAPTE Directory of Physical Therapy Programs, https://www.capteonline.org/programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPTE Aggregate Data 2019-2020 - https://www.capteonline.org/globalassets/capte-docs/aggregate-data/2019-2020-aggregate-pt-program-data.pdf
+</t>
+  </si>
+  <si>
+    <t>Bureau of Labor Statistics, U.S. Department of Labor, Occupational Outlook Handbook, Physical Therapists, on the Internet at https://www.bls.gov/ooh/healthcare/physical-therapists.htm</t>
+  </si>
+  <si>
+    <t>Bureau of Labor Statistics, U.S. Department of Labor, Occupational Outlook Handbook, Physical Therapists, on the Internet at https://www.bls.gov/ooh/healthcare/occupational-therapists.htm</t>
+  </si>
+  <si>
+    <t>Bureau of Labor Statistics, U.S. Department of Labor, Occupational Outlook Handbook, Physical Therapists, on the Internet at https://stats.bls.gov/ooh/Healthcare/Speech-language-pathologists.htm</t>
+  </si>
+  <si>
+    <t>Bureau of Labor Statistics, U.S. Department of Labor, Occupational Outlook Handbook, Physical Therapists, on the Internet at https://www.bls.gov/ooh/healthcare/physician-assistants.htm</t>
+  </si>
+  <si>
+    <t>Bureau of Labor Statistics, U.S. Department of Labor, Occupational Outlook Handbook, Physical Therapists, on the Internet at https://www.bls.gov/ooh/healthcare/optometrists.htm</t>
+  </si>
+  <si>
+    <t>ARCPA Directory of Accredited PA Programs, http://www.arc-pa.org/accreditation/accredited-programs/</t>
+  </si>
+  <si>
+    <t>ACOTE Directory of Occupational Therapy Programs, https://acoteonline.org/schools/</t>
+  </si>
+  <si>
+    <t>Council on Academic Accreditation (CAA), Speech-Language Pathology Programs, https://apps.asha.org/eweb/ashadynamicpage.aspx?site=ashacms&amp;webcode=caalisting&amp;caacat=slp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAEA Aggregate Data 2019-2020 - https://paeaonline.org/wp-content/uploads/2020/11/program-report35-20201014.pdf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCO Annual Student Data Report 2019-2020 - https://optometriceducation.org/wp-content/uploads/2022/03/ASCO-Student-Data-Report-2019-20-updated-March-2022.pdf
+</t>
+  </si>
+  <si>
+    <t>BLSTotalSupply2020</t>
+  </si>
+  <si>
+    <t>BLSMedianPay2020</t>
+  </si>
+  <si>
+    <t>BLS10YrJobOutlook2020</t>
   </si>
 </sst>
 </file>
@@ -183,8 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,159 +570,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41AFCFC-0A79-4793-9572-EF1C41391408}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H2" s="1">
+        <v>239200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>91010</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H3" s="1">
+        <v>131600</v>
+      </c>
+      <c r="I3" s="1">
+        <v>86280</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H4" s="1">
+        <v>129400</v>
+      </c>
+      <c r="I4" s="1">
+        <v>115390</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H5" s="1">
+        <v>43300</v>
+      </c>
+      <c r="I5" s="1">
+        <v>118050</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="H6" s="1">
+        <v>158100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>80480</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +1063,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58F42ED6-BA90-4706-BDCF-E9AB4FC1488C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58F42ED6-BA90-4706-BDCF-E9AB4FC1488C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f5d01bc9-28ae-4456-8ca2-aef537193fc0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033EE12F-CB2E-4687-95DA-2567ED8B46D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033EE12F-CB2E-4687-95DA-2567ED8B46D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E1F1F8-ED71-49E3-BF94-7DF23AA013B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E1F1F8-ED71-49E3-BF94-7DF23AA013B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>